--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -79,25 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Wnt16</t>
+  </si>
+  <si>
+    <t>Lrp5</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt16</t>
-  </si>
-  <si>
-    <t>Lrp5</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H2">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I2">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J2">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N2">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O2">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P2">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q2">
-        <v>7.116638903725</v>
+        <v>7.26506923769</v>
       </c>
       <c r="R2">
-        <v>28.4665556149</v>
+        <v>29.06027695076</v>
       </c>
       <c r="S2">
-        <v>0.1308722883698435</v>
+        <v>0.3686247296238916</v>
       </c>
       <c r="T2">
-        <v>0.07954726038800701</v>
+        <v>0.2811275112495821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H3">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I3">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J3">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.744931</v>
       </c>
       <c r="O3">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P3">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q3">
-        <v>1.552558513913</v>
+        <v>1.631872032956</v>
       </c>
       <c r="R3">
-        <v>9.315351083478001</v>
+        <v>9.791232197736001</v>
       </c>
       <c r="S3">
-        <v>0.02855096180832296</v>
+        <v>0.08280009002645983</v>
       </c>
       <c r="T3">
-        <v>0.02603092092586246</v>
+        <v>0.09471983850946443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H4">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I4">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J4">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N4">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O4">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P4">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q4">
-        <v>3.011973412709667</v>
+        <v>2.249751183164</v>
       </c>
       <c r="R4">
-        <v>18.071840476258</v>
+        <v>13.498507098984</v>
       </c>
       <c r="S4">
-        <v>0.05538904788665291</v>
+        <v>0.1141508627767116</v>
       </c>
       <c r="T4">
-        <v>0.0505001525124089</v>
+        <v>0.1305838107720768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H5">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I5">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J5">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N5">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O5">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P5">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q5">
-        <v>3.13550055833</v>
+        <v>2.37232237436</v>
       </c>
       <c r="R5">
-        <v>12.54200223332</v>
+        <v>9.48928949744</v>
       </c>
       <c r="S5">
-        <v>0.05766066521076166</v>
+        <v>0.1203700426270429</v>
       </c>
       <c r="T5">
-        <v>0.03504751087337955</v>
+        <v>0.09179886153398611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H6">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I6">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J6">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N6">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O6">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P6">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q6">
-        <v>4.288082883584667</v>
+        <v>0.8288608106880001</v>
       </c>
       <c r="R6">
-        <v>25.728497301508</v>
+        <v>4.973164864128</v>
       </c>
       <c r="S6">
-        <v>0.07885621671777435</v>
+        <v>0.04205584038354638</v>
       </c>
       <c r="T6">
-        <v>0.07189599971005775</v>
+        <v>0.04811012171890561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.396569</v>
+        <v>0.416828</v>
       </c>
       <c r="H7">
-        <v>0.793138</v>
+        <v>0.833656</v>
       </c>
       <c r="I7">
-        <v>0.4157660261361071</v>
+        <v>0.8138162450343883</v>
       </c>
       <c r="J7">
-        <v>0.3217711943585838</v>
+        <v>0.7445085466268955</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N7">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O7">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P7">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q7">
-        <v>3.503979121973667</v>
+        <v>1.691285306649333</v>
       </c>
       <c r="R7">
-        <v>21.023874731842</v>
+        <v>10.147711839896</v>
       </c>
       <c r="S7">
-        <v>0.06443684614275168</v>
+        <v>0.0858146795967361</v>
       </c>
       <c r="T7">
-        <v>0.05874934994886812</v>
+        <v>0.09816840284288045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.362629</v>
+        <v>0.032632</v>
       </c>
       <c r="H8">
-        <v>1.087887</v>
+        <v>0.097896</v>
       </c>
       <c r="I8">
-        <v>0.3801830659776997</v>
+        <v>0.0637108152714361</v>
       </c>
       <c r="J8">
-        <v>0.441349045584976</v>
+        <v>0.08742743851251183</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N8">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O8">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P8">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q8">
-        <v>6.507567785225</v>
+        <v>0.56875675186</v>
       </c>
       <c r="R8">
-        <v>39.04540671135</v>
+        <v>3.41254051116</v>
       </c>
       <c r="S8">
-        <v>0.1196717016692379</v>
+        <v>0.02885833527758892</v>
       </c>
       <c r="T8">
-        <v>0.1091089198370621</v>
+        <v>0.03301272808123386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.362629</v>
+        <v>0.032632</v>
       </c>
       <c r="H9">
-        <v>1.087887</v>
+        <v>0.097896</v>
       </c>
       <c r="I9">
-        <v>0.3801830659776997</v>
+        <v>0.0637108152714361</v>
       </c>
       <c r="J9">
-        <v>0.441349045584976</v>
+        <v>0.08742743851251183</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>11.744931</v>
       </c>
       <c r="O9">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P9">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q9">
-        <v>1.419684194533</v>
+        <v>0.127753529464</v>
       </c>
       <c r="R9">
-        <v>12.777157750797</v>
+        <v>1.149781765176</v>
       </c>
       <c r="S9">
-        <v>0.02610745350642725</v>
+        <v>0.006482128210541129</v>
       </c>
       <c r="T9">
-        <v>0.03570463207320004</v>
+        <v>0.0111229251762388</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.362629</v>
+        <v>0.032632</v>
       </c>
       <c r="H10">
-        <v>1.087887</v>
+        <v>0.097896</v>
       </c>
       <c r="I10">
-        <v>0.3801830659776997</v>
+        <v>0.0637108152714361</v>
       </c>
       <c r="J10">
-        <v>0.441349045584976</v>
+        <v>0.08742743851251183</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N10">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O10">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P10">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q10">
-        <v>2.754196386196333</v>
+        <v>0.176125117816</v>
       </c>
       <c r="R10">
-        <v>24.787767475767</v>
+        <v>1.585126060344</v>
       </c>
       <c r="S10">
-        <v>0.05064862620650899</v>
+        <v>0.008936470088692826</v>
       </c>
       <c r="T10">
-        <v>0.06926721379667471</v>
+        <v>0.01533442179909127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.362629</v>
+        <v>0.032632</v>
       </c>
       <c r="H11">
-        <v>1.087887</v>
+        <v>0.097896</v>
       </c>
       <c r="I11">
-        <v>0.3801830659776997</v>
+        <v>0.0637108152714361</v>
       </c>
       <c r="J11">
-        <v>0.441349045584976</v>
+        <v>0.08742743851251183</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N11">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O11">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P11">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q11">
-        <v>2.867151572530001</v>
+        <v>0.18572078584</v>
       </c>
       <c r="R11">
-        <v>17.20290943518</v>
+        <v>1.11432471504</v>
       </c>
       <c r="S11">
-        <v>0.05272582921184785</v>
+        <v>0.009423347834132222</v>
       </c>
       <c r="T11">
-        <v>0.04807200192338316</v>
+        <v>0.0107799156351434</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.362629</v>
+        <v>0.032632</v>
       </c>
       <c r="H12">
-        <v>1.087887</v>
+        <v>0.097896</v>
       </c>
       <c r="I12">
-        <v>0.3801830659776997</v>
+        <v>0.0637108152714361</v>
       </c>
       <c r="J12">
-        <v>0.441349045584976</v>
+        <v>0.08742743851251183</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N12">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O12">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P12">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q12">
-        <v>3.921091179571334</v>
+        <v>0.06488860147200001</v>
       </c>
       <c r="R12">
-        <v>35.28982061614201</v>
+        <v>0.583997413248</v>
       </c>
       <c r="S12">
-        <v>0.07210737857005918</v>
+        <v>0.003292404021313073</v>
       </c>
       <c r="T12">
-        <v>0.09861426818104239</v>
+        <v>0.005649558661838918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.362629</v>
+        <v>0.032632</v>
       </c>
       <c r="H13">
-        <v>1.087887</v>
+        <v>0.097896</v>
       </c>
       <c r="I13">
-        <v>0.3801830659776997</v>
+        <v>0.0637108152714361</v>
       </c>
       <c r="J13">
-        <v>0.441349045584976</v>
+        <v>0.08742743851251183</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N13">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O13">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P13">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q13">
-        <v>3.204094230820334</v>
+        <v>0.1324047859706667</v>
       </c>
       <c r="R13">
-        <v>28.836848077383</v>
+        <v>1.191643073736</v>
       </c>
       <c r="S13">
-        <v>0.05892207681361857</v>
+        <v>0.006718129839167937</v>
       </c>
       <c r="T13">
-        <v>0.08058200977361354</v>
+        <v>0.0115278891589656</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1946293333333333</v>
+        <v>0.06272933333333333</v>
       </c>
       <c r="H14">
-        <v>0.583888</v>
+        <v>0.188188</v>
       </c>
       <c r="I14">
-        <v>0.2040509078861932</v>
+        <v>0.1224729396941756</v>
       </c>
       <c r="J14">
-        <v>0.2368797600564401</v>
+        <v>0.1680640148605926</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.945525</v>
+        <v>17.4294175</v>
       </c>
       <c r="N14">
-        <v>35.89105</v>
+        <v>34.858835</v>
       </c>
       <c r="O14">
-        <v>0.3147738875783</v>
+        <v>0.4529581854295807</v>
       </c>
       <c r="P14">
-        <v>0.2472168478181395</v>
+        <v>0.3776014560521451</v>
       </c>
       <c r="Q14">
-        <v>3.492725567066667</v>
+        <v>1.093335740163333</v>
       </c>
       <c r="R14">
-        <v>20.9563534024</v>
+        <v>6.56001444098</v>
       </c>
       <c r="S14">
-        <v>0.06422989753921862</v>
+        <v>0.05547512052810025</v>
       </c>
       <c r="T14">
-        <v>0.05856066759307036</v>
+        <v>0.06346121672132914</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>25</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1946293333333333</v>
+        <v>0.06272933333333333</v>
       </c>
       <c r="H15">
-        <v>0.583888</v>
+        <v>0.188188</v>
       </c>
       <c r="I15">
-        <v>0.2040509078861932</v>
+        <v>0.1224729396941756</v>
       </c>
       <c r="J15">
-        <v>0.2368797600564401</v>
+        <v>0.1680640148605926</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.744931</v>
       </c>
       <c r="O15">
-        <v>0.06867074270993076</v>
+        <v>0.1017429801035258</v>
       </c>
       <c r="P15">
-        <v>0.0808988541617353</v>
+        <v>0.127224648983019</v>
       </c>
       <c r="Q15">
-        <v>0.7619693635253334</v>
+        <v>0.2455838972253334</v>
       </c>
       <c r="R15">
-        <v>6.857724271728</v>
+        <v>2.210255075028</v>
       </c>
       <c r="S15">
-        <v>0.01401232739518055</v>
+        <v>0.01246076186652482</v>
       </c>
       <c r="T15">
-        <v>0.0191633011626728</v>
+        <v>0.02138188529731579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1946293333333333</v>
+        <v>0.06272933333333333</v>
       </c>
       <c r="H16">
-        <v>0.583888</v>
+        <v>0.188188</v>
       </c>
       <c r="I16">
-        <v>0.2040509078861932</v>
+        <v>0.1224729396941756</v>
       </c>
       <c r="J16">
-        <v>0.2368797600564401</v>
+        <v>0.1680640148605926</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.595080333333333</v>
+        <v>5.397313</v>
       </c>
       <c r="N16">
-        <v>22.785241</v>
+        <v>16.191939</v>
       </c>
       <c r="O16">
-        <v>0.133221678551774</v>
+        <v>0.1402661392829386</v>
       </c>
       <c r="P16">
-        <v>0.1569442927079769</v>
+        <v>0.1753959862028526</v>
       </c>
       <c r="Q16">
-        <v>1.478225421889778</v>
+        <v>0.3385698462813334</v>
       </c>
       <c r="R16">
-        <v>13.304028797008</v>
+        <v>3.047128616532</v>
       </c>
       <c r="S16">
-        <v>0.02718400445861207</v>
+        <v>0.01717880641753417</v>
       </c>
       <c r="T16">
-        <v>0.03717692639889326</v>
+        <v>0.02947775363168452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1946293333333333</v>
+        <v>0.06272933333333333</v>
       </c>
       <c r="H17">
-        <v>0.583888</v>
+        <v>0.188188</v>
       </c>
       <c r="I17">
-        <v>0.2040509078861932</v>
+        <v>0.1224729396941756</v>
       </c>
       <c r="J17">
-        <v>0.2368797600564401</v>
+        <v>0.1680640148605926</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.90657</v>
+        <v>5.69137</v>
       </c>
       <c r="N17">
-        <v>15.81314</v>
+        <v>11.38274</v>
       </c>
       <c r="O17">
-        <v>0.1386853701025721</v>
+        <v>0.1479081344978025</v>
       </c>
       <c r="P17">
-        <v>0.1089205978901965</v>
+        <v>0.1233012863987851</v>
       </c>
       <c r="Q17">
-        <v>1.538850448053333</v>
+        <v>0.3570158458533333</v>
       </c>
       <c r="R17">
-        <v>9.233102688319999</v>
+        <v>2.14209507512</v>
       </c>
       <c r="S17">
-        <v>0.02829887567996255</v>
+        <v>0.01811474403662738</v>
       </c>
       <c r="T17">
-        <v>0.02580108509343373</v>
+        <v>0.02072250922965561</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1946293333333333</v>
+        <v>0.06272933333333333</v>
       </c>
       <c r="H18">
-        <v>0.583888</v>
+        <v>0.188188</v>
       </c>
       <c r="I18">
-        <v>0.2040509078861932</v>
+        <v>0.1224729396941756</v>
       </c>
       <c r="J18">
-        <v>0.2368797600564401</v>
+        <v>0.1680640148605926</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.81295533333333</v>
+        <v>1.988496</v>
       </c>
       <c r="N18">
-        <v>32.438866</v>
+        <v>5.965488000000001</v>
       </c>
       <c r="O18">
-        <v>0.1896648878471845</v>
+        <v>0.05167731737988258</v>
       </c>
       <c r="P18">
-        <v>0.2234382721964117</v>
+        <v>0.06461997237892773</v>
       </c>
       <c r="Q18">
-        <v>2.104518287889778</v>
+        <v>0.124737028416</v>
       </c>
       <c r="R18">
-        <v>18.940664591008</v>
+        <v>1.122633255744</v>
       </c>
       <c r="S18">
-        <v>0.03870129255935102</v>
+        <v>0.006329072975023132</v>
       </c>
       <c r="T18">
-        <v>0.05292800430531155</v>
+        <v>0.0108602919981832</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1946293333333333</v>
+        <v>0.06272933333333333</v>
       </c>
       <c r="H19">
-        <v>0.583888</v>
+        <v>0.188188</v>
       </c>
       <c r="I19">
-        <v>0.2040509078861932</v>
+        <v>0.1224729396941756</v>
       </c>
       <c r="J19">
-        <v>0.2368797600564401</v>
+        <v>0.1680640148605926</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.835736333333335</v>
+        <v>4.057513666666667</v>
       </c>
       <c r="N19">
-        <v>26.507209</v>
+        <v>12.172541</v>
       </c>
       <c r="O19">
-        <v>0.1549834332102386</v>
+        <v>0.1054472433062699</v>
       </c>
       <c r="P19">
-        <v>0.1825811352255401</v>
+        <v>0.1318566499842704</v>
       </c>
       <c r="Q19">
-        <v>1.719693472065778</v>
+        <v>0.2545251273008889</v>
       </c>
       <c r="R19">
-        <v>15.477241248592</v>
+        <v>2.290726145708</v>
       </c>
       <c r="S19">
-        <v>0.03162451025386838</v>
+        <v>0.01291443387036585</v>
       </c>
       <c r="T19">
-        <v>0.04324977550305837</v>
+        <v>0.02216035798242439</v>
       </c>
     </row>
   </sheetData>
